--- a/results/[1_reference]_#_co2_price.xlsx
+++ b/results/[1_reference]_#_co2_price.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/[1_reference]_#_co2_price.xlsx
+++ b/results/[1_reference]_#_co2_price.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>210</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +540,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +571,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>308</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
